--- a/Jogos_da_Semana_FlashScore_2024-12-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-08.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="H2" t="n">
         <v>4.33</v>
       </c>
       <c r="I2" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="J2" t="n">
         <v>5.5</v>
@@ -762,7 +762,7 @@
         <v>2.3</v>
       </c>
       <c r="L2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
@@ -1311,10 +1311,10 @@
         <v>2.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="O5" t="n">
         <v>1.1</v>
@@ -1341,13 +1341,13 @@
         <v>3.25</v>
       </c>
       <c r="W5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z5" t="n">
         <v>41</v>
@@ -1362,16 +1362,16 @@
         <v>26</v>
       </c>
       <c r="AD5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AH5" t="n">
         <v>17</v>
@@ -2233,10 +2233,10 @@
         <v>4</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R10" t="n">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="S10" t="n">
         <v>1.36</v>
@@ -2245,13 +2245,13 @@
         <v>3</v>
       </c>
       <c r="U10" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V10" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X10" t="n">
         <v>11</v>
@@ -2260,7 +2260,7 @@
         <v>9</v>
       </c>
       <c r="Z10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA10" t="n">
         <v>17</v>
@@ -2269,7 +2269,7 @@
         <v>23</v>
       </c>
       <c r="AC10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD10" t="n">
         <v>6.5</v>
@@ -2299,7 +2299,7 @@
         <v>26</v>
       </c>
       <c r="AM10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN10" t="n">
         <v>4.33</v>
@@ -2335,16 +2335,16 @@
         <v>5.5</v>
       </c>
       <c r="AY10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA10" t="n">
         <v>51</v>
       </c>
       <c r="BB10" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC10" t="n">
         <v>151</v>
@@ -2442,19 +2442,19 @@
         <v>10</v>
       </c>
       <c r="Z11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB11" t="n">
         <v>26</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>23</v>
       </c>
       <c r="AC11" t="n">
         <v>13</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE11" t="n">
         <v>12</v>
@@ -2585,10 +2585,10 @@
         <v>6</v>
       </c>
       <c r="M12" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O12" t="n">
         <v>1.2</v>
@@ -2961,10 +2961,10 @@
         <v>3.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="R14" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="S14" t="n">
         <v>1.4</v>
@@ -3113,16 +3113,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H15" t="n">
         <v>3.4</v>
       </c>
       <c r="I15" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J15" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K15" t="n">
         <v>2.1</v>
@@ -3134,7 +3134,7 @@
         <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O15" t="n">
         <v>1.36</v>
@@ -3164,7 +3164,7 @@
         <v>6.5</v>
       </c>
       <c r="X15" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y15" t="n">
         <v>8.5</v>
@@ -3203,7 +3203,7 @@
         <v>15</v>
       </c>
       <c r="AK15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL15" t="n">
         <v>41</v>
@@ -3254,7 +3254,7 @@
         <v>81</v>
       </c>
       <c r="BB15" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC15" t="n">
         <v>251</v>
@@ -3495,10 +3495,10 @@
         <v>2.75</v>
       </c>
       <c r="M17" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O17" t="n">
         <v>1.22</v>
@@ -3507,10 +3507,10 @@
         <v>4</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R17" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S17" t="n">
         <v>1.33</v>
@@ -4233,10 +4233,10 @@
         <v>4</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R21" t="n">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="S21" t="n">
         <v>1.36</v>
@@ -5673,10 +5673,10 @@
         <v>19</v>
       </c>
       <c r="O29" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P29" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q29" t="n">
         <v>1.44</v>
@@ -5861,10 +5861,10 @@
         <v>4.33</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R30" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S30" t="n">
         <v>1.33</v>
@@ -5978,7 +5978,7 @@
         <v>101</v>
       </c>
       <c r="BD30" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31">
@@ -6562,7 +6562,7 @@
         <v>1.62</v>
       </c>
       <c r="H34" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="I34" t="n">
         <v>4.6</v>
@@ -6571,10 +6571,10 @@
         <v>2.12</v>
       </c>
       <c r="K34" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="L34" t="n">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="M34" t="n">
         <v>1.03</v>
@@ -6598,7 +6598,7 @@
         <v>1.29</v>
       </c>
       <c r="T34" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="U34" t="n">
         <v>1.6</v>
@@ -6610,10 +6610,10 @@
         <v>9.25</v>
       </c>
       <c r="X34" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="Y34" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Z34" t="n">
         <v>13</v>
@@ -6622,7 +6622,7 @@
         <v>11.75</v>
       </c>
       <c r="AB34" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AC34" t="n">
         <v>9</v>
@@ -6631,10 +6631,10 @@
         <v>8.25</v>
       </c>
       <c r="AE34" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF34" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AG34" t="n">
         <v>300</v>
@@ -6676,10 +6676,10 @@
         <v>150</v>
       </c>
       <c r="AT34" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="AU34" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AV34" t="n">
         <v>50</v>
@@ -6759,10 +6759,10 @@
         <v>2.25</v>
       </c>
       <c r="M35" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N35" t="n">
-        <v>9.550000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="O35" t="n">
         <v>1.3</v>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H44" t="n">
         <v>3.4</v>
@@ -9289,10 +9289,10 @@
         <v>9</v>
       </c>
       <c r="M49" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N49" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O49" t="n">
         <v>1.29</v>
@@ -9343,7 +9343,7 @@
         <v>9</v>
       </c>
       <c r="AE49" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF49" t="n">
         <v>81</v>
@@ -9398,10 +9398,10 @@
         <v>126</v>
       </c>
       <c r="AX49" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AY49" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ49" t="n">
         <v>51</v>
@@ -9410,7 +9410,7 @@
         <v>251</v>
       </c>
       <c r="BB49" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC49" t="n">
         <v>501</v>
@@ -9836,7 +9836,7 @@
         <v>1.04</v>
       </c>
       <c r="N52" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O52" t="n">
         <v>1.25</v>
@@ -10179,7 +10179,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H54" t="n">
         <v>3.3</v>
@@ -10203,22 +10203,22 @@
         <v>11</v>
       </c>
       <c r="O54" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P54" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="R54" t="n">
-        <v>1.99</v>
+        <v>2.03</v>
       </c>
       <c r="S54" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T54" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U54" t="n">
         <v>1.67</v>
@@ -10227,7 +10227,7 @@
         <v>2.1</v>
       </c>
       <c r="W54" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X54" t="n">
         <v>13</v>
@@ -10242,13 +10242,13 @@
         <v>21</v>
       </c>
       <c r="AB54" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC54" t="n">
         <v>11</v>
       </c>
       <c r="AD54" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE54" t="n">
         <v>12</v>
@@ -10260,7 +10260,7 @@
         <v>151</v>
       </c>
       <c r="AH54" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI54" t="n">
         <v>13</v>
@@ -10275,7 +10275,7 @@
         <v>21</v>
       </c>
       <c r="AM54" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN54" t="n">
         <v>4.75</v>
@@ -10284,7 +10284,7 @@
         <v>15</v>
       </c>
       <c r="AP54" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ54" t="n">
         <v>41</v>
@@ -10296,7 +10296,7 @@
         <v>151</v>
       </c>
       <c r="AT54" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU54" t="n">
         <v>7.5</v>
@@ -10361,28 +10361,28 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="H55" t="n">
         <v>3.2</v>
       </c>
       <c r="I55" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J55" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K55" t="n">
         <v>2.05</v>
       </c>
       <c r="L55" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M55" t="n">
         <v>1.07</v>
       </c>
       <c r="N55" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O55" t="n">
         <v>1.36</v>
@@ -10415,7 +10415,7 @@
         <v>11</v>
       </c>
       <c r="Y55" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z55" t="n">
         <v>23</v>
@@ -10424,7 +10424,7 @@
         <v>21</v>
       </c>
       <c r="AB55" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC55" t="n">
         <v>8.5</v>
@@ -10442,7 +10442,7 @@
         <v>301</v>
       </c>
       <c r="AH55" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI55" t="n">
         <v>15</v>
@@ -10451,7 +10451,7 @@
         <v>11</v>
       </c>
       <c r="AK55" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL55" t="n">
         <v>26</v>
@@ -10463,13 +10463,13 @@
         <v>4.33</v>
       </c>
       <c r="AO55" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP55" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ55" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR55" t="n">
         <v>67</v>
@@ -10490,13 +10490,13 @@
         <v>126</v>
       </c>
       <c r="AX55" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AY55" t="n">
         <v>17</v>
       </c>
       <c r="AZ55" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA55" t="n">
         <v>51</v>
@@ -10543,7 +10543,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H56" t="n">
         <v>4.1</v>
@@ -10573,10 +10573,10 @@
         <v>3.75</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R56" t="n">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="S56" t="n">
         <v>1.36</v>
@@ -10603,16 +10603,16 @@
         <v>10</v>
       </c>
       <c r="AA56" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB56" t="n">
         <v>29</v>
       </c>
       <c r="AC56" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD56" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE56" t="n">
         <v>19</v>
@@ -10651,7 +10651,7 @@
         <v>19</v>
       </c>
       <c r="AQ56" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR56" t="n">
         <v>41</v>
@@ -10666,13 +10666,13 @@
         <v>9</v>
       </c>
       <c r="AV56" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW56" t="n">
         <v>126</v>
       </c>
       <c r="AX56" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AY56" t="n">
         <v>34</v>
@@ -10725,13 +10725,13 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H57" t="n">
         <v>3.1</v>
       </c>
       <c r="I57" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J57" t="n">
         <v>2.75</v>
@@ -11457,10 +11457,10 @@
         <v>6</v>
       </c>
       <c r="M61" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N61" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O61" t="n">
         <v>1.5</v>
@@ -11469,10 +11469,10 @@
         <v>2.5</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R61" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S61" t="n">
         <v>1.57</v>
@@ -11619,28 +11619,28 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="H62" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="I62" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="J62" t="n">
         <v>4.5</v>
       </c>
       <c r="K62" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L62" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M62" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N62" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O62" t="n">
         <v>1.44</v>
@@ -11682,13 +11682,13 @@
         <v>41</v>
       </c>
       <c r="AB62" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC62" t="n">
         <v>6.5</v>
       </c>
       <c r="AD62" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AE62" t="n">
         <v>17</v>
@@ -11701,16 +11701,16 @@
         <v>6</v>
       </c>
       <c r="AI62" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AJ62" t="n">
         <v>9.5</v>
       </c>
       <c r="AK62" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL62" t="n">
         <v>19</v>
-      </c>
-      <c r="AL62" t="n">
-        <v>21</v>
       </c>
       <c r="AM62" t="n">
         <v>34</v>
@@ -11817,10 +11817,10 @@
         <v>3.6</v>
       </c>
       <c r="M63" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N63" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O63" t="n">
         <v>1.44</v>
@@ -15134,19 +15134,19 @@
         <v>1.04</v>
       </c>
       <c r="N84" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O84" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P84" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R84" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S84" t="n">
         <v>1.36</v>
@@ -16719,22 +16719,22 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.35</v>
+        <v>2.42</v>
       </c>
       <c r="H93" t="n">
         <v>3</v>
       </c>
       <c r="I93" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="J93" t="n">
-        <v>2.82</v>
+        <v>3.1</v>
       </c>
       <c r="K93" t="n">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="L93" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="M93" t="n">
         <v>1.01</v>
@@ -16749,22 +16749,22 @@
         <v>2.95</v>
       </c>
       <c r="Q93" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R93" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S93" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T93" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="U93" t="n">
         <v>1.65</v>
       </c>
       <c r="V93" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="W93" t="n">
         <v>8</v>
@@ -16773,22 +16773,22 @@
         <v>12</v>
       </c>
       <c r="Y93" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="Z93" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AA93" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AB93" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AC93" t="n">
         <v>9</v>
       </c>
       <c r="AD93" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AE93" t="n">
         <v>12.5</v>
@@ -16803,65 +16803,65 @@
         <v>9.5</v>
       </c>
       <c r="AI93" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AJ93" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AK93" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AL93" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AM93" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AN93" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="AO93" t="n">
-        <v>11.75</v>
+        <v>13.5</v>
       </c>
       <c r="AP93" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AQ93" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AR93" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="AS93" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="AT93" t="n">
-        <v>2.67</v>
+        <v>2.42</v>
       </c>
       <c r="AU93" t="n">
-        <v>6.2</v>
+        <v>6.7</v>
       </c>
       <c r="AV93" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AW93" t="inlineStr"/>
       <c r="AX93" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="AY93" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AZ93" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BA93" t="n">
         <v>75</v>
       </c>
       <c r="BB93" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BC93" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BD93" t="inlineStr"/>
     </row>
@@ -16915,10 +16915,10 @@
         <v>2.95</v>
       </c>
       <c r="M94" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N94" t="n">
-        <v>8.9</v>
+        <v>7.8</v>
       </c>
       <c r="O94" t="n">
         <v>1.33</v>
@@ -17075,40 +17075,40 @@
         </is>
       </c>
       <c r="G95" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="H95" t="n">
         <v>3</v>
       </c>
-      <c r="H95" t="n">
-        <v>2.9</v>
-      </c>
       <c r="I95" t="n">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="J95" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="K95" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L95" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M95" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N95" t="n">
+        <v>10</v>
+      </c>
+      <c r="O95" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P95" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q95" t="n">
         <v>2.05</v>
       </c>
-      <c r="L95" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M95" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N95" t="n">
-        <v>8</v>
-      </c>
-      <c r="O95" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P95" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q95" t="n">
-        <v>2.15</v>
-      </c>
       <c r="R95" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="S95" t="n">
         <v>1.44</v>
@@ -17117,76 +17117,76 @@
         <v>2.63</v>
       </c>
       <c r="U95" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V95" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W95" t="n">
         <v>9</v>
       </c>
       <c r="X95" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y95" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z95" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB95" t="n">
         <v>34</v>
       </c>
-      <c r="AA95" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB95" t="n">
-        <v>41</v>
-      </c>
       <c r="AC95" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD95" t="n">
         <v>6</v>
       </c>
       <c r="AE95" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF95" t="n">
         <v>51</v>
       </c>
       <c r="AG95" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH95" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI95" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ95" t="n">
         <v>10</v>
       </c>
       <c r="AK95" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL95" t="n">
         <v>21</v>
       </c>
       <c r="AM95" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN95" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO95" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP95" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ95" t="n">
         <v>51</v>
       </c>
       <c r="AR95" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS95" t="n">
         <v>201</v>
@@ -17195,29 +17195,29 @@
         <v>2.63</v>
       </c>
       <c r="AU95" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV95" t="n">
         <v>51</v>
       </c>
       <c r="AW95" t="inlineStr"/>
       <c r="AX95" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AY95" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ95" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA95" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB95" t="n">
         <v>67</v>
       </c>
       <c r="BC95" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD95" t="inlineStr"/>
     </row>
@@ -18362,7 +18362,7 @@
         <v>1.04</v>
       </c>
       <c r="N102" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O102" t="n">
         <v>1.25</v>
@@ -18389,7 +18389,7 @@
         <v>2</v>
       </c>
       <c r="W102" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X102" t="n">
         <v>21</v>
@@ -18404,7 +18404,7 @@
         <v>34</v>
       </c>
       <c r="AB102" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC102" t="n">
         <v>12</v>
@@ -18452,7 +18452,7 @@
         <v>81</v>
       </c>
       <c r="AR102" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS102" t="n">
         <v>201</v>
@@ -18479,7 +18479,7 @@
         <v>19</v>
       </c>
       <c r="BA102" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BB102" t="n">
         <v>51</v>
@@ -18538,7 +18538,7 @@
         <v>2.25</v>
       </c>
       <c r="L103" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="M103" t="n">
         <v>1.04</v>
@@ -19269,13 +19269,13 @@
         <v>2.6</v>
       </c>
       <c r="M107" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N107" t="n">
         <v>13</v>
       </c>
       <c r="O107" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P107" t="n">
         <v>4.33</v>
@@ -19293,7 +19293,7 @@
         <v>3.25</v>
       </c>
       <c r="U107" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="V107" t="n">
         <v>2.2</v>
@@ -19451,13 +19451,13 @@
         <v>3.4</v>
       </c>
       <c r="M108" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N108" t="n">
         <v>10</v>
       </c>
       <c r="O108" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P108" t="n">
         <v>3.5</v>
@@ -19475,7 +19475,7 @@
         <v>2.75</v>
       </c>
       <c r="U108" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V108" t="n">
         <v>2.05</v>
@@ -19633,13 +19633,13 @@
         <v>7</v>
       </c>
       <c r="M109" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N109" t="n">
         <v>15</v>
       </c>
       <c r="O109" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P109" t="n">
         <v>4</v>
@@ -19657,10 +19657,10 @@
         <v>3.25</v>
       </c>
       <c r="U109" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="V109" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="W109" t="n">
         <v>7</v>
@@ -19979,90 +19979,90 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="H111" t="n">
-        <v>10.2</v>
+        <v>8.9</v>
       </c>
       <c r="I111" t="n">
-        <v>19</v>
+        <v>14.6</v>
       </c>
       <c r="J111" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="K111" t="n">
-        <v>3.62</v>
+        <v>3.44</v>
       </c>
       <c r="L111" t="n">
-        <v>11.3</v>
+        <v>9.5</v>
       </c>
       <c r="M111" t="inlineStr"/>
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="P111" t="n">
-        <v>6.65</v>
+        <v>6.5</v>
       </c>
       <c r="Q111" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="R111" t="n">
-        <v>3.56</v>
+        <v>3.44</v>
       </c>
       <c r="S111" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="T111" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="U111" t="n">
-        <v>2.19</v>
+        <v>1.97</v>
       </c>
       <c r="V111" t="n">
-        <v>1.64</v>
+        <v>1.79</v>
       </c>
       <c r="W111" t="n">
         <v>10</v>
       </c>
       <c r="X111" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="Y111" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z111" t="n">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="AA111" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="AB111" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AC111" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AD111" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AE111" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="AF111" t="n">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="AG111" t="n">
         <v>101</v>
       </c>
       <c r="AH111" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="AI111" t="n">
         <v>101</v>
       </c>
       <c r="AJ111" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="AK111" t="n">
         <v>101</v>
@@ -20071,7 +20071,7 @@
         <v>101</v>
       </c>
       <c r="AM111" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AN111" t="inlineStr"/>
       <c r="AO111" t="inlineStr"/>
@@ -20126,10 +20126,10 @@
         <v>2.2</v>
       </c>
       <c r="H112" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I112" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J112" t="n">
         <v>2.88</v>
@@ -20165,10 +20165,10 @@
         <v>2.63</v>
       </c>
       <c r="U112" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V112" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W112" t="n">
         <v>7</v>
@@ -20192,7 +20192,7 @@
         <v>8.5</v>
       </c>
       <c r="AD112" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE112" t="n">
         <v>15</v>
@@ -20201,10 +20201,10 @@
         <v>51</v>
       </c>
       <c r="AG112" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH112" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI112" t="n">
         <v>17</v>
@@ -20252,10 +20252,10 @@
         <v>126</v>
       </c>
       <c r="AX112" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AY112" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ112" t="n">
         <v>29</v>
@@ -20305,13 +20305,13 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H113" t="n">
         <v>3</v>
       </c>
       <c r="I113" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J113" t="n">
         <v>2.88</v>
@@ -20329,16 +20329,16 @@
         <v>6.5</v>
       </c>
       <c r="O113" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P113" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q113" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R113" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S113" t="n">
         <v>1.57</v>
@@ -20359,7 +20359,7 @@
         <v>8</v>
       </c>
       <c r="Y113" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z113" t="n">
         <v>17</v>
@@ -20371,7 +20371,7 @@
         <v>41</v>
       </c>
       <c r="AC113" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD113" t="n">
         <v>6</v>
@@ -20481,22 +20481,22 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="H114" t="n">
         <v>3</v>
       </c>
       <c r="I114" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="J114" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K114" t="n">
         <v>1.91</v>
       </c>
       <c r="L114" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M114" t="n">
         <v>1.1</v>
@@ -20505,31 +20505,31 @@
         <v>7</v>
       </c>
       <c r="O114" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P114" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q114" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R114" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S114" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T114" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U114" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V114" t="n">
         <v>1.57</v>
       </c>
-      <c r="T114" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U114" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V114" t="n">
-        <v>1.67</v>
-      </c>
       <c r="W114" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X114" t="n">
         <v>12</v>
@@ -20541,28 +20541,28 @@
         <v>29</v>
       </c>
       <c r="AA114" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB114" t="n">
         <v>41</v>
       </c>
       <c r="AC114" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD114" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE114" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF114" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG114" t="n">
         <v>101</v>
       </c>
       <c r="AH114" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI114" t="n">
         <v>11</v>
@@ -20589,22 +20589,22 @@
         <v>34</v>
       </c>
       <c r="AQ114" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR114" t="n">
         <v>101</v>
       </c>
       <c r="AS114" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT114" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU114" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV114" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW114" t="inlineStr"/>
       <c r="AX114" t="n">
@@ -20614,16 +20614,16 @@
         <v>17</v>
       </c>
       <c r="AZ114" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA114" t="n">
         <v>51</v>
       </c>
       <c r="BB114" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC114" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD114" t="inlineStr"/>
     </row>
@@ -20659,55 +20659,55 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="H115" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I115" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="J115" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="K115" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L115" t="n">
         <v>9.5</v>
       </c>
       <c r="M115" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N115" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O115" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P115" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q115" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="R115" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="S115" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T115" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U115" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V115" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W115" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X115" t="n">
         <v>5.5</v>
@@ -20716,19 +20716,19 @@
         <v>9.5</v>
       </c>
       <c r="Z115" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA115" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB115" t="n">
         <v>41</v>
       </c>
       <c r="AC115" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD115" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AD115" t="n">
-        <v>9</v>
       </c>
       <c r="AE115" t="n">
         <v>29</v>
@@ -20743,13 +20743,13 @@
         <v>19</v>
       </c>
       <c r="AI115" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ115" t="n">
         <v>29</v>
       </c>
       <c r="AK115" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL115" t="n">
         <v>81</v>
@@ -20767,26 +20767,26 @@
         <v>23</v>
       </c>
       <c r="AQ115" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR115" t="n">
         <v>51</v>
       </c>
       <c r="AS115" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT115" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU115" t="n">
         <v>11</v>
       </c>
       <c r="AV115" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW115" t="inlineStr"/>
       <c r="AX115" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AY115" t="n">
         <v>51</v>
@@ -21068,13 +21068,13 @@
         <v>6</v>
       </c>
       <c r="X117" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y117" t="n">
         <v>8</v>
       </c>
       <c r="Z117" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA117" t="n">
         <v>17</v>
@@ -21083,7 +21083,7 @@
         <v>36</v>
       </c>
       <c r="AC117" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD117" t="n">
         <v>6</v>
@@ -21096,28 +21096,28 @@
       </c>
       <c r="AG117" t="inlineStr"/>
       <c r="AH117" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI117" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ117" t="n">
         <v>13</v>
       </c>
       <c r="AK117" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="AL117" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="AM117" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="AN117" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="AO117" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP117" t="n">
         <v>19</v>
@@ -21126,7 +21126,7 @@
         <v>36</v>
       </c>
       <c r="AR117" t="n">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="AS117" t="n">
         <v>101</v>
@@ -21138,31 +21138,31 @@
         <v>6.5</v>
       </c>
       <c r="AV117" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="AW117" t="n">
         <v>126</v>
       </c>
       <c r="AX117" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AY117" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ117" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA117" t="n">
         <v>81</v>
       </c>
       <c r="BB117" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC117" t="n">
         <v>126</v>
       </c>
       <c r="BD117" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="118">
@@ -21585,16 +21585,16 @@
         <v>11</v>
       </c>
       <c r="O120" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P120" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q120" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R120" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S120" t="n">
         <v>1.4</v>
@@ -22107,13 +22107,13 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H123" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I123" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J123" t="n">
         <v>2.25</v>
@@ -22125,10 +22125,10 @@
         <v>5.5</v>
       </c>
       <c r="M123" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N123" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O123" t="n">
         <v>1.3</v>
@@ -22173,7 +22173,7 @@
         <v>29</v>
       </c>
       <c r="AC123" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD123" t="n">
         <v>7.5</v>
@@ -22188,10 +22188,10 @@
         <v>351</v>
       </c>
       <c r="AH123" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI123" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ123" t="n">
         <v>17</v>
@@ -22206,7 +22206,7 @@
         <v>41</v>
       </c>
       <c r="AN123" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO123" t="n">
         <v>8.5</v>
@@ -22215,7 +22215,7 @@
         <v>21</v>
       </c>
       <c r="AQ123" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR123" t="n">
         <v>51</v>
@@ -22236,7 +22236,7 @@
         <v>81</v>
       </c>
       <c r="AX123" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AY123" t="n">
         <v>29</v>
@@ -23921,13 +23921,13 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="H133" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="I133" t="n">
-        <v>2.87</v>
+        <v>2.8</v>
       </c>
       <c r="J133" t="n">
         <v>2.7</v>
@@ -23945,19 +23945,19 @@
         <v>9.25</v>
       </c>
       <c r="O133" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P133" t="n">
-        <v>4.65</v>
+        <v>4.7</v>
       </c>
       <c r="Q133" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="R133" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="S133" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="T133" t="n">
         <v>3.4</v>
@@ -23966,52 +23966,52 @@
         <v>1.42</v>
       </c>
       <c r="V133" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="W133" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X133" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="Y133" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="Z133" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA133" t="n">
         <v>15.5</v>
       </c>
       <c r="AB133" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC133" t="n">
         <v>9.25</v>
       </c>
       <c r="AD133" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AE133" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AF133" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG133" t="n">
         <v>150</v>
       </c>
       <c r="AH133" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AI133" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AJ133" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AK133" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AL133" t="n">
         <v>20</v>
@@ -24020,34 +24020,34 @@
         <v>21</v>
       </c>
       <c r="AN133" t="n">
-        <v>4.55</v>
+        <v>4.7</v>
       </c>
       <c r="AO133" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AP133" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AQ133" t="n">
         <v>40</v>
       </c>
       <c r="AR133" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AS133" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AT133" t="n">
         <v>3.4</v>
       </c>
       <c r="AU133" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AV133" t="n">
         <v>37</v>
       </c>
       <c r="AW133" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AX133" t="n">
         <v>5.3</v>
@@ -24059,10 +24059,10 @@
         <v>17</v>
       </c>
       <c r="BA133" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BB133" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BC133" t="n">
         <v>150</v>
@@ -24461,43 +24461,43 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H136" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I136" t="n">
-        <v>4.65</v>
+        <v>4.3</v>
       </c>
       <c r="J136" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K136" t="n">
         <v>2.18</v>
       </c>
       <c r="L136" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="M136" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N136" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="O136" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P136" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="Q136" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="R136" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S136" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="T136" t="n">
         <v>2.8</v>
@@ -24509,28 +24509,28 @@
         <v>1.93</v>
       </c>
       <c r="W136" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X136" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="Y136" t="n">
         <v>8</v>
       </c>
       <c r="Z136" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AA136" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AB136" t="n">
         <v>25</v>
       </c>
       <c r="AC136" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AD136" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AE136" t="n">
         <v>15</v>
@@ -24542,34 +24542,34 @@
         <v>500</v>
       </c>
       <c r="AH136" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AI136" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AJ136" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AK136" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AL136" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AM136" t="n">
         <v>45</v>
       </c>
       <c r="AN136" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="AO136" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AP136" t="n">
         <v>17.5</v>
       </c>
       <c r="AQ136" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AR136" t="n">
         <v>60</v>
@@ -24588,10 +24588,10 @@
       </c>
       <c r="AW136" t="inlineStr"/>
       <c r="AX136" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="AY136" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AZ136" t="n">
         <v>30</v>
@@ -25177,22 +25177,22 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="H140" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I140" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="J140" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="K140" t="n">
         <v>2.15</v>
       </c>
       <c r="L140" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="M140" t="n">
         <v>1.07</v>
@@ -25225,19 +25225,19 @@
         <v>1.91</v>
       </c>
       <c r="W140" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X140" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="Y140" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="Z140" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA140" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AB140" t="n">
         <v>32</v>
@@ -25246,10 +25246,10 @@
         <v>7.3</v>
       </c>
       <c r="AD140" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AE140" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AF140" t="n">
         <v>80</v>
@@ -25261,28 +25261,28 @@
         <v>9</v>
       </c>
       <c r="AI140" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AJ140" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AK140" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AL140" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AM140" t="n">
         <v>45</v>
       </c>
       <c r="AN140" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="AO140" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AP140" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AQ140" t="n">
         <v>40</v>
@@ -25309,10 +25309,10 @@
         <v>5.2</v>
       </c>
       <c r="AY140" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AZ140" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA140" t="n">
         <v>90</v>
@@ -25359,22 +25359,22 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="H141" t="n">
-        <v>4.85</v>
+        <v>4.65</v>
       </c>
       <c r="I141" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="J141" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="K141" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="L141" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="M141" t="n">
         <v>1.04</v>
@@ -25401,76 +25401,76 @@
         <v>3</v>
       </c>
       <c r="U141" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="V141" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="W141" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X141" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="Y141" t="n">
         <v>8.5</v>
       </c>
       <c r="Z141" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AA141" t="n">
         <v>11.25</v>
       </c>
       <c r="AB141" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC141" t="n">
         <v>8.5</v>
       </c>
       <c r="AD141" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AE141" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF141" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AG141" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AH141" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI141" t="n">
         <v>50</v>
       </c>
       <c r="AJ141" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AK141" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AL141" t="n">
         <v>90</v>
       </c>
       <c r="AM141" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN141" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="AO141" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AP141" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AQ141" t="n">
         <v>17</v>
       </c>
-      <c r="AQ141" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AR141" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AS141" t="n">
         <v>250</v>
@@ -25479,10 +25479,10 @@
         <v>3</v>
       </c>
       <c r="AU141" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AV141" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AW141" t="inlineStr"/>
       <c r="AX141" t="n">
@@ -25495,7 +25495,7 @@
         <v>45</v>
       </c>
       <c r="BA141" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="BB141" t="n">
         <v>350</v>
@@ -25544,7 +25544,7 @@
         <v>3.55</v>
       </c>
       <c r="J142" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="K142" t="n">
         <v>2.05</v>
@@ -25592,7 +25592,7 @@
         <v>8.5</v>
       </c>
       <c r="Z142" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AA142" t="n">
         <v>16</v>
@@ -25604,7 +25604,7 @@
         <v>7</v>
       </c>
       <c r="AD142" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AE142" t="n">
         <v>14</v>
@@ -25634,7 +25634,7 @@
         <v>40</v>
       </c>
       <c r="AN142" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="AO142" t="n">
         <v>10.5</v>
@@ -28235,19 +28235,19 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H157" t="n">
         <v>3.3</v>
       </c>
       <c r="I157" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="J157" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K157" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L157" t="n">
         <v>3.1</v>
@@ -28334,7 +28334,7 @@
         <v>29</v>
       </c>
       <c r="AN157" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO157" t="n">
         <v>15</v>
@@ -28993,10 +28993,10 @@
         <v>3.5</v>
       </c>
       <c r="Q161" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R161" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S161" t="n">
         <v>1.4</v>
@@ -29691,40 +29691,40 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2.95</v>
+        <v>2.87</v>
       </c>
       <c r="H165" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I165" t="n">
-        <v>2.3</v>
+        <v>2.37</v>
       </c>
       <c r="J165" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K165" t="n">
         <v>2.05</v>
       </c>
       <c r="L165" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M165" t="n">
         <v>1.04</v>
       </c>
       <c r="N165" t="n">
-        <v>9</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="O165" t="n">
         <v>1.36</v>
       </c>
       <c r="P165" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="Q165" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="R165" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S165" t="n">
         <v>1.42</v>
@@ -29733,7 +29733,7 @@
         <v>2.47</v>
       </c>
       <c r="U165" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="V165" t="n">
         <v>1.8</v>
@@ -29742,25 +29742,25 @@
         <v>8.25</v>
       </c>
       <c r="X165" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y165" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="Z165" t="n">
+        <v>35</v>
+      </c>
+      <c r="AA165" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB165" t="n">
         <v>37</v>
-      </c>
-      <c r="AA165" t="n">
-        <v>28</v>
-      </c>
-      <c r="AB165" t="n">
-        <v>40</v>
       </c>
       <c r="AC165" t="n">
         <v>8.25</v>
       </c>
       <c r="AD165" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AE165" t="n">
         <v>15</v>
@@ -29772,40 +29772,40 @@
         <v>700</v>
       </c>
       <c r="AH165" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AI165" t="n">
         <v>10.75</v>
       </c>
       <c r="AJ165" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AK165" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL165" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM165" t="n">
+        <v>35</v>
+      </c>
+      <c r="AN165" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AO165" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AP165" t="n">
         <v>23</v>
       </c>
-      <c r="AL165" t="n">
-        <v>20</v>
-      </c>
-      <c r="AM165" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN165" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AO165" t="n">
-        <v>16</v>
-      </c>
-      <c r="AP165" t="n">
-        <v>24</v>
-      </c>
       <c r="AQ165" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AR165" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AS165" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AT165" t="n">
         <v>2.45</v>
@@ -29820,16 +29820,16 @@
         <v>81</v>
       </c>
       <c r="AX165" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AY165" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AZ165" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA165" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="BB165" t="n">
         <v>90</v>
@@ -30053,19 +30053,19 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H167" t="n">
         <v>3.6</v>
       </c>
       <c r="I167" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="J167" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="K167" t="n">
         <v>2.15</v>
-      </c>
-      <c r="K167" t="n">
-        <v>2.12</v>
       </c>
       <c r="L167" t="n">
         <v>5.5</v>
@@ -30074,7 +30074,7 @@
         <v>1.04</v>
       </c>
       <c r="N167" t="n">
-        <v>9.550000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="O167" t="n">
         <v>1.34</v>
@@ -30089,34 +30089,34 @@
         <v>1.65</v>
       </c>
       <c r="S167" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T167" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="U167" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V167" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="W167" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="X167" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="Y167" t="n">
         <v>8.25</v>
       </c>
       <c r="Z167" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AA167" t="n">
         <v>14</v>
       </c>
       <c r="AB167" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC167" t="n">
         <v>8.5</v>
@@ -30132,7 +30132,7 @@
       </c>
       <c r="AG167" t="inlineStr"/>
       <c r="AH167" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AI167" t="n">
         <v>32</v>
@@ -30153,22 +30153,22 @@
         <v>3.3</v>
       </c>
       <c r="AO167" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AP167" t="n">
         <v>18.5</v>
       </c>
       <c r="AQ167" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR167" t="n">
         <v>60</v>
       </c>
       <c r="AS167" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AT167" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="AU167" t="n">
         <v>8</v>
@@ -30180,7 +30180,7 @@
         <v>81</v>
       </c>
       <c r="AX167" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AY167" t="n">
         <v>32</v>
@@ -30233,25 +30233,29 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="H168" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="I168" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="J168" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="K168" t="n">
-        <v>2.87</v>
+        <v>2.92</v>
       </c>
       <c r="L168" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
-      <c r="N168" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="M168" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N168" t="n">
+        <v>19.5</v>
+      </c>
       <c r="O168" t="n">
         <v>1.1</v>
       </c>
@@ -30265,16 +30269,16 @@
         <v>3.1</v>
       </c>
       <c r="S168" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="T168" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="U168" t="n">
         <v>1.65</v>
       </c>
       <c r="V168" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="W168" t="n">
         <v>12</v>
@@ -30286,58 +30290,58 @@
         <v>9.25</v>
       </c>
       <c r="Z168" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AA168" t="n">
         <v>9.75</v>
       </c>
       <c r="AB168" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AC168" t="n">
         <v>27</v>
       </c>
       <c r="AD168" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE168" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AF168" t="n">
         <v>60</v>
       </c>
       <c r="AG168" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AH168" t="n">
         <v>35</v>
       </c>
       <c r="AI168" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ168" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK168" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AL168" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AM168" t="n">
         <v>60</v>
       </c>
       <c r="AN168" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="AO168" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AP168" t="n">
         <v>12</v>
       </c>
       <c r="AQ168" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AR168" t="n">
         <v>26</v>
@@ -30346,17 +30350,17 @@
         <v>110</v>
       </c>
       <c r="AT168" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="AU168" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AV168" t="n">
         <v>50</v>
       </c>
       <c r="AW168" t="inlineStr"/>
       <c r="AX168" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AY168" t="n">
         <v>45</v>
@@ -30365,13 +30369,13 @@
         <v>35</v>
       </c>
       <c r="BA168" t="n">
+        <v>300</v>
+      </c>
+      <c r="BB168" t="n">
         <v>250</v>
       </c>
-      <c r="BB168" t="n">
-        <v>200</v>
-      </c>
       <c r="BC168" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BD168" t="inlineStr"/>
     </row>
@@ -30407,145 +30411,149 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>6.3</v>
+        <v>9.75</v>
       </c>
       <c r="H169" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="I169" t="n">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="J169" t="n">
-        <v>5.5</v>
+        <v>7.3</v>
       </c>
       <c r="K169" t="n">
-        <v>2.75</v>
+        <v>2.85</v>
       </c>
       <c r="L169" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
-      <c r="N169" t="inlineStr"/>
+        <v>1.62</v>
+      </c>
+      <c r="M169" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N169" t="n">
+        <v>19.5</v>
+      </c>
       <c r="O169" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="P169" t="n">
-        <v>5.6</v>
+        <v>6.1</v>
       </c>
       <c r="Q169" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="R169" t="n">
-        <v>2.92</v>
+        <v>3.15</v>
       </c>
       <c r="S169" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="T169" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="U169" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="V169" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="W169" t="n">
+        <v>40</v>
+      </c>
+      <c r="X169" t="n">
+        <v>90</v>
+      </c>
+      <c r="Y169" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z169" t="n">
+        <v>250</v>
+      </c>
+      <c r="AA169" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB169" t="n">
+        <v>60</v>
+      </c>
+      <c r="AC169" t="n">
         <v>27</v>
       </c>
-      <c r="X169" t="n">
+      <c r="AD169" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE169" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF169" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG169" t="n">
+        <v>200</v>
+      </c>
+      <c r="AH169" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AI169" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ169" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK169" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AL169" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AM169" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AN169" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AO169" t="n">
         <v>50</v>
       </c>
-      <c r="Y169" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z169" t="n">
-        <v>120</v>
-      </c>
-      <c r="AA169" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB169" t="n">
-        <v>40</v>
-      </c>
-      <c r="AC169" t="n">
-        <v>26</v>
-      </c>
-      <c r="AD169" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE169" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AF169" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG169" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH169" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI169" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ169" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AK169" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AL169" t="n">
-        <v>10</v>
-      </c>
-      <c r="AM169" t="n">
-        <v>18</v>
-      </c>
-      <c r="AN169" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AO169" t="n">
-        <v>30</v>
-      </c>
       <c r="AP169" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="AQ169" t="n">
-        <v>175</v>
+        <v>300</v>
       </c>
       <c r="AR169" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AS169" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT169" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="AU169" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="AV169" t="n">
         <v>45</v>
       </c>
       <c r="AW169" t="inlineStr"/>
       <c r="AX169" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AY169" t="n">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="AZ169" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BA169" t="n">
         <v>12</v>
       </c>
-      <c r="BA169" t="n">
-        <v>14.5</v>
-      </c>
       <c r="BB169" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="BC169" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BD169" t="inlineStr"/>
     </row>
@@ -30581,22 +30589,22 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="H170" t="n">
-        <v>4.35</v>
+        <v>4.25</v>
       </c>
       <c r="I170" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="J170" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="K170" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="L170" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="M170" t="n">
         <v>1.03</v>
@@ -30608,37 +30616,37 @@
         <v>1.18</v>
       </c>
       <c r="P170" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="Q170" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="R170" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="S170" t="n">
         <v>1.29</v>
       </c>
       <c r="T170" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="U170" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="V170" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W170" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="X170" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y170" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z170" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AA170" t="n">
         <v>50</v>
@@ -30650,28 +30658,28 @@
         <v>9</v>
       </c>
       <c r="AD170" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE170" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF170" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG170" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH170" t="n">
         <v>8.75</v>
       </c>
-      <c r="AE170" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AF170" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG170" t="n">
-        <v>400</v>
-      </c>
-      <c r="AH170" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AI170" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AJ170" t="n">
         <v>8</v>
       </c>
       <c r="AK170" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AL170" t="n">
         <v>11</v>
@@ -30680,10 +30688,10 @@
         <v>21</v>
       </c>
       <c r="AN170" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AO170" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AP170" t="n">
         <v>30</v>
@@ -30698,10 +30706,10 @@
         <v>350</v>
       </c>
       <c r="AT170" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="AU170" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AV170" t="n">
         <v>55</v>
@@ -30711,13 +30719,13 @@
         <v>3.55</v>
       </c>
       <c r="AY170" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AZ170" t="n">
         <v>14.5</v>
       </c>
       <c r="BA170" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="BB170" t="n">
         <v>40</v>
